--- a/prfx1_test03_rx/simulation/modelsim/demo-dinput.xlsx
+++ b/prfx1_test03_rx/simulation/modelsim/demo-dinput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\daisuke\rf\repo\motorf\prfx1_test03_rx\simulation\modelsim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53761397-D812-4448-9C87-408778599421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BFBE52-0DA2-403E-B374-8986F7EAF41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{35760B27-050F-4215-8C89-408C748519FF}"/>
   </bookViews>
@@ -84,6 +84,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF4472C4"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -7792,6 +7797,608 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>367392</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>426982</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C06A676-69BB-45CA-A488-44725F4FE72B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4078858" y="1737022"/>
+          <a:ext cx="10688176" cy="6371428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="50196"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>440121</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>84364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>39415</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEDE9805-A22A-4464-8ED8-13974D340733}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14780173" y="1739743"/>
+          <a:ext cx="10530052" cy="6371428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+            <a:alpha val="50196"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{560B23E3-00B0-4226-8850-71063395BC45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:alphaModFix amt="20000"/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="22076" t="20565" r="594" b="14820"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14792325" y="3009901"/>
+          <a:ext cx="10582275" cy="3990974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>392206</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>425824</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矢印: 五方向 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E14A1BD0-ED38-4241-A4A3-4156A2FF38ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4101353" y="1176618"/>
+          <a:ext cx="10668000" cy="481853"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 10656794"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 481853"/>
+            <a:gd name="connsiteX1" fmla="*/ 10415868 w 10656794"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 481853"/>
+            <a:gd name="connsiteX2" fmla="*/ 10656794 w 10656794"/>
+            <a:gd name="connsiteY2" fmla="*/ 240927 h 481853"/>
+            <a:gd name="connsiteX3" fmla="*/ 10415868 w 10656794"/>
+            <a:gd name="connsiteY3" fmla="*/ 481853 h 481853"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 10656794"/>
+            <a:gd name="connsiteY4" fmla="*/ 481853 h 481853"/>
+            <a:gd name="connsiteX5" fmla="*/ 0 w 10656794"/>
+            <a:gd name="connsiteY5" fmla="*/ 0 h 481853"/>
+            <a:gd name="connsiteX0" fmla="*/ 11206 w 10668000"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 481853"/>
+            <a:gd name="connsiteX1" fmla="*/ 10427074 w 10668000"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 481853"/>
+            <a:gd name="connsiteX2" fmla="*/ 10668000 w 10668000"/>
+            <a:gd name="connsiteY2" fmla="*/ 240927 h 481853"/>
+            <a:gd name="connsiteX3" fmla="*/ 10427074 w 10668000"/>
+            <a:gd name="connsiteY3" fmla="*/ 481853 h 481853"/>
+            <a:gd name="connsiteX4" fmla="*/ 11206 w 10668000"/>
+            <a:gd name="connsiteY4" fmla="*/ 481853 h 481853"/>
+            <a:gd name="connsiteX5" fmla="*/ 0 w 10668000"/>
+            <a:gd name="connsiteY5" fmla="*/ 235323 h 481853"/>
+            <a:gd name="connsiteX6" fmla="*/ 11206 w 10668000"/>
+            <a:gd name="connsiteY6" fmla="*/ 0 h 481853"/>
+            <a:gd name="connsiteX0" fmla="*/ 358588 w 10668000"/>
+            <a:gd name="connsiteY0" fmla="*/ 11206 h 481853"/>
+            <a:gd name="connsiteX1" fmla="*/ 10427074 w 10668000"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 481853"/>
+            <a:gd name="connsiteX2" fmla="*/ 10668000 w 10668000"/>
+            <a:gd name="connsiteY2" fmla="*/ 240927 h 481853"/>
+            <a:gd name="connsiteX3" fmla="*/ 10427074 w 10668000"/>
+            <a:gd name="connsiteY3" fmla="*/ 481853 h 481853"/>
+            <a:gd name="connsiteX4" fmla="*/ 11206 w 10668000"/>
+            <a:gd name="connsiteY4" fmla="*/ 481853 h 481853"/>
+            <a:gd name="connsiteX5" fmla="*/ 0 w 10668000"/>
+            <a:gd name="connsiteY5" fmla="*/ 235323 h 481853"/>
+            <a:gd name="connsiteX6" fmla="*/ 358588 w 10668000"/>
+            <a:gd name="connsiteY6" fmla="*/ 11206 h 481853"/>
+            <a:gd name="connsiteX0" fmla="*/ 358588 w 10668000"/>
+            <a:gd name="connsiteY0" fmla="*/ 11206 h 481853"/>
+            <a:gd name="connsiteX1" fmla="*/ 10427074 w 10668000"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 481853"/>
+            <a:gd name="connsiteX2" fmla="*/ 10668000 w 10668000"/>
+            <a:gd name="connsiteY2" fmla="*/ 240927 h 481853"/>
+            <a:gd name="connsiteX3" fmla="*/ 10427074 w 10668000"/>
+            <a:gd name="connsiteY3" fmla="*/ 481853 h 481853"/>
+            <a:gd name="connsiteX4" fmla="*/ 336176 w 10668000"/>
+            <a:gd name="connsiteY4" fmla="*/ 481853 h 481853"/>
+            <a:gd name="connsiteX5" fmla="*/ 0 w 10668000"/>
+            <a:gd name="connsiteY5" fmla="*/ 235323 h 481853"/>
+            <a:gd name="connsiteX6" fmla="*/ 358588 w 10668000"/>
+            <a:gd name="connsiteY6" fmla="*/ 11206 h 481853"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="10668000" h="481853">
+              <a:moveTo>
+                <a:pt x="358588" y="11206"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="10427074" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="10668000" y="240927"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="10427074" y="481853"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="336176" y="481853"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="235323"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="358588" y="11206"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>num=1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>410137</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>141195</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矢印: 五方向 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99C19967-03B2-40CF-93A0-BE99067097EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14753666" y="1183341"/>
+          <a:ext cx="10668000" cy="481853"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 10656794"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 481853"/>
+            <a:gd name="connsiteX1" fmla="*/ 10415868 w 10656794"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 481853"/>
+            <a:gd name="connsiteX2" fmla="*/ 10656794 w 10656794"/>
+            <a:gd name="connsiteY2" fmla="*/ 240927 h 481853"/>
+            <a:gd name="connsiteX3" fmla="*/ 10415868 w 10656794"/>
+            <a:gd name="connsiteY3" fmla="*/ 481853 h 481853"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 10656794"/>
+            <a:gd name="connsiteY4" fmla="*/ 481853 h 481853"/>
+            <a:gd name="connsiteX5" fmla="*/ 0 w 10656794"/>
+            <a:gd name="connsiteY5" fmla="*/ 0 h 481853"/>
+            <a:gd name="connsiteX0" fmla="*/ 11206 w 10668000"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 481853"/>
+            <a:gd name="connsiteX1" fmla="*/ 10427074 w 10668000"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 481853"/>
+            <a:gd name="connsiteX2" fmla="*/ 10668000 w 10668000"/>
+            <a:gd name="connsiteY2" fmla="*/ 240927 h 481853"/>
+            <a:gd name="connsiteX3" fmla="*/ 10427074 w 10668000"/>
+            <a:gd name="connsiteY3" fmla="*/ 481853 h 481853"/>
+            <a:gd name="connsiteX4" fmla="*/ 11206 w 10668000"/>
+            <a:gd name="connsiteY4" fmla="*/ 481853 h 481853"/>
+            <a:gd name="connsiteX5" fmla="*/ 0 w 10668000"/>
+            <a:gd name="connsiteY5" fmla="*/ 235323 h 481853"/>
+            <a:gd name="connsiteX6" fmla="*/ 11206 w 10668000"/>
+            <a:gd name="connsiteY6" fmla="*/ 0 h 481853"/>
+            <a:gd name="connsiteX0" fmla="*/ 358588 w 10668000"/>
+            <a:gd name="connsiteY0" fmla="*/ 11206 h 481853"/>
+            <a:gd name="connsiteX1" fmla="*/ 10427074 w 10668000"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 481853"/>
+            <a:gd name="connsiteX2" fmla="*/ 10668000 w 10668000"/>
+            <a:gd name="connsiteY2" fmla="*/ 240927 h 481853"/>
+            <a:gd name="connsiteX3" fmla="*/ 10427074 w 10668000"/>
+            <a:gd name="connsiteY3" fmla="*/ 481853 h 481853"/>
+            <a:gd name="connsiteX4" fmla="*/ 11206 w 10668000"/>
+            <a:gd name="connsiteY4" fmla="*/ 481853 h 481853"/>
+            <a:gd name="connsiteX5" fmla="*/ 0 w 10668000"/>
+            <a:gd name="connsiteY5" fmla="*/ 235323 h 481853"/>
+            <a:gd name="connsiteX6" fmla="*/ 358588 w 10668000"/>
+            <a:gd name="connsiteY6" fmla="*/ 11206 h 481853"/>
+            <a:gd name="connsiteX0" fmla="*/ 358588 w 10668000"/>
+            <a:gd name="connsiteY0" fmla="*/ 11206 h 481853"/>
+            <a:gd name="connsiteX1" fmla="*/ 10427074 w 10668000"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 481853"/>
+            <a:gd name="connsiteX2" fmla="*/ 10668000 w 10668000"/>
+            <a:gd name="connsiteY2" fmla="*/ 240927 h 481853"/>
+            <a:gd name="connsiteX3" fmla="*/ 10427074 w 10668000"/>
+            <a:gd name="connsiteY3" fmla="*/ 481853 h 481853"/>
+            <a:gd name="connsiteX4" fmla="*/ 336176 w 10668000"/>
+            <a:gd name="connsiteY4" fmla="*/ 481853 h 481853"/>
+            <a:gd name="connsiteX5" fmla="*/ 0 w 10668000"/>
+            <a:gd name="connsiteY5" fmla="*/ 235323 h 481853"/>
+            <a:gd name="connsiteX6" fmla="*/ 358588 w 10668000"/>
+            <a:gd name="connsiteY6" fmla="*/ 11206 h 481853"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="10668000" h="481853">
+              <a:moveTo>
+                <a:pt x="358588" y="11206"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="10427074" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="10668000" y="240927"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="10427074" y="481853"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="336176" y="481853"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="235323"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="358588" y="11206"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>num=2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>627530</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B2076B0-922F-44A2-89A8-9FA7417E5E56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:alphaModFix amt="35000"/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="13171"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="25381324" y="2454087"/>
+          <a:ext cx="9412941" cy="4560794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8094,8 +8701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA81085-7662-4F13-8ADB-17C2D8B632F0}">
   <dimension ref="A1:D1140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/prfx1_test03_rx/simulation/modelsim/demo-dinput.xlsx
+++ b/prfx1_test03_rx/simulation/modelsim/demo-dinput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\daisuke\rf\repo\motorf\prfx1_test03_rx\simulation\modelsim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7678933-227D-4930-B124-BD7A90624331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6E8EA2-20A0-4A8E-9290-B7D7333D4226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{35760B27-050F-4215-8C89-408C748519FF}"/>
   </bookViews>
@@ -36423,8 +36423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1ABE52-BB8D-43E0-896E-D341C6757A37}">
   <dimension ref="A1:G1140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A1105" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
